--- a/Planung/unterlagen/PlanungGitDiagramm.xlsx
+++ b/Planung/unterlagen/PlanungGitDiagramm.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="75" windowWidth="18915" windowHeight="11820"/>
   </bookViews>
@@ -16,10 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
-  <si>
-    <t>Die Vorarbeiten sind erledigt, der Projektinitialisierungsauftrag ist erstellt und genehmigt.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="40">
   <si>
     <t>Realisierung</t>
   </si>
@@ -102,13 +99,55 @@
 2.) Planung wurde abgeschlossen. Arbeit kann begonnen werden.
 3.) Produkt wurde fertiggestellt. Einführung kann begonnen werden.
 4.) Projekt wurde präsentiert. Projekt zu Ende.</t>
+  </si>
+  <si>
+    <t>KW 21</t>
+  </si>
+  <si>
+    <t>KW 22</t>
+  </si>
+  <si>
+    <t>KW 23</t>
+  </si>
+  <si>
+    <t>KW 24</t>
+  </si>
+  <si>
+    <t>Projektwoche und Frühlingsferien</t>
+  </si>
+  <si>
+    <t>DB-Realisierung</t>
+  </si>
+  <si>
+    <t>Modul Benutzerverwaltung</t>
+  </si>
+  <si>
+    <t>Modul Wohnung mieten</t>
+  </si>
+  <si>
+    <t>Modul Wohnung vermieten</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Dokumentation</t>
+  </si>
+  <si>
+    <t>PL</t>
+  </si>
+  <si>
+    <t>4PL Zuhause</t>
+  </si>
+  <si>
+    <t>Vorarbeiten &amp; Projektinitialisierungsauftrag</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,8 +163,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -150,8 +212,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="65"/>
+        <bgColor theme="0" tint="-0.34998626667073579"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor theme="0" tint="-0.34998626667073579"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -306,15 +386,156 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="5"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="5"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="5"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="5"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="5"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="5"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="5"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="5"/>
+      </right>
+      <top style="medium">
+        <color theme="5"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="5"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="5"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="5"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="5"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
@@ -325,15 +546,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
@@ -343,12 +558,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -356,14 +565,110 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -671,341 +976,765 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R44"/>
+  <sheetPr codeName="Tabelle1"/>
+  <dimension ref="A1:W56"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27:O27"/>
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="7"/>
-    <col min="3" max="18" width="3.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="11.42578125" style="2"/>
+    <col min="1" max="1" width="58.140625" style="22" customWidth="1"/>
+    <col min="2" max="2" width="6" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="6"/>
+    <col min="4" max="19" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="23" width="3.5703125" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="4" customFormat="1" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:23" s="3" customFormat="1" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="46">
+        <v>16</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="L2" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="35"/>
+    </row>
+    <row r="3" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="45"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="29"/>
+    </row>
+    <row r="4" spans="1:23" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="5" t="s">
+      <c r="B4" s="48">
+        <v>48</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="31"/>
+    </row>
+    <row r="5" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="45"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="29"/>
+    </row>
+    <row r="6" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="42">
+        <v>64</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="31"/>
+    </row>
+    <row r="7" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="45"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="29"/>
+    </row>
+    <row r="8" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="42">
+        <v>64</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="54"/>
+      <c r="Q8" s="55"/>
+      <c r="R8" s="55"/>
+      <c r="S8" s="56"/>
+    </row>
+    <row r="9" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="45"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="29"/>
+    </row>
+    <row r="10" spans="1:23" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="62">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="3" t="s">
+      <c r="C10" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" s="3" t="s">
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="64"/>
+      <c r="Q10" s="59"/>
+      <c r="R10" s="59"/>
+      <c r="S10" s="60"/>
+    </row>
+    <row r="11" spans="1:23" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="69"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="58"/>
+      <c r="Q11" s="59"/>
+      <c r="R11" s="59"/>
+      <c r="S11" s="60"/>
+    </row>
+    <row r="12" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="71" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="72">
+        <v>12</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="54"/>
+      <c r="Q12" s="55"/>
+      <c r="R12" s="55"/>
+      <c r="S12" s="31"/>
+    </row>
+    <row r="13" spans="1:23" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="69"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="58"/>
+      <c r="Q13" s="59"/>
+      <c r="R13" s="59"/>
+      <c r="S13" s="60"/>
+    </row>
+    <row r="14" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="71" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="72">
+        <v>12</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="54"/>
+      <c r="Q14" s="55"/>
+      <c r="R14" s="55"/>
+      <c r="S14" s="31"/>
+    </row>
+    <row r="15" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="69"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="29"/>
+    </row>
+    <row r="16" spans="1:23" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="61" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="62">
         <v>16</v>
       </c>
-      <c r="N1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="9" t="s">
+      <c r="C16" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q16" s="67"/>
+      <c r="R16" s="67"/>
+      <c r="S16" s="60"/>
+    </row>
+    <row r="17" spans="1:23" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="61"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="10"/>
-    </row>
-    <row r="3" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="14"/>
-    </row>
-    <row r="4" spans="1:18" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="17" t="s">
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="58"/>
+      <c r="Q17" s="59"/>
+      <c r="R17" s="59"/>
+      <c r="S17" s="60"/>
+    </row>
+    <row r="18" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="71" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="72">
+        <v>4</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="27"/>
+      <c r="S18" s="56"/>
+    </row>
+    <row r="19" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="69"/>
+      <c r="B19" s="70"/>
+      <c r="C19" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-    </row>
-    <row r="5" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-    </row>
-    <row r="6" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="28"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="26"/>
+      <c r="S19" s="29"/>
+    </row>
+    <row r="20" spans="1:23" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="62">
+        <v>16</v>
+      </c>
+      <c r="C20" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="40"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="64"/>
+      <c r="Q20" s="65"/>
+      <c r="R20" s="65"/>
+      <c r="S20" s="68"/>
+    </row>
+    <row r="21" spans="1:23" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="69"/>
+      <c r="B21" s="70"/>
+      <c r="C21" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="L21" s="40"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="40"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="58"/>
+      <c r="Q21" s="59"/>
+      <c r="R21" s="59"/>
+      <c r="S21" s="60"/>
+    </row>
+    <row r="22" spans="1:23" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="42">
+        <v>32</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="27"/>
+      <c r="R22" s="27"/>
+      <c r="S22" s="31"/>
+      <c r="T22" s="16"/>
+      <c r="U22" s="16"/>
+    </row>
+    <row r="23" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="45"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="28"/>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="26"/>
+      <c r="S23" s="29"/>
+    </row>
+    <row r="24" spans="1:23" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="42">
+        <v>32</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="27"/>
+      <c r="R24" s="27"/>
+      <c r="S24" s="31"/>
+      <c r="V24" s="16"/>
+      <c r="W24" s="16"/>
+    </row>
+    <row r="25" spans="1:23" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="45"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="L25" s="40"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="40"/>
+      <c r="O25" s="40"/>
+      <c r="P25" s="36"/>
+      <c r="Q25" s="37"/>
+      <c r="R25" s="37"/>
+      <c r="S25" s="38"/>
+    </row>
+    <row r="26" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-    </row>
-    <row r="7" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="21"/>
-      <c r="B7" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="B26" s="42"/>
+      <c r="C26" s="18"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="25"/>
+      <c r="Q26" s="25"/>
+      <c r="R26" s="25"/>
+      <c r="S26" s="25"/>
+    </row>
+    <row r="27" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="51"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="20"/>
+      <c r="H27" s="21">
         <v>1</v>
       </c>
-      <c r="B8" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-    </row>
-    <row r="9" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="21"/>
-      <c r="B9" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
+      <c r="K27" s="21">
+        <v>2</v>
+      </c>
+      <c r="L27" s="41"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="41"/>
+      <c r="O27" s="41"/>
+      <c r="S27" s="21">
         <v>3</v>
       </c>
-      <c r="B10" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-    </row>
-    <row r="11" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="21"/>
-      <c r="B11" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-    </row>
-    <row r="13" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
-      <c r="B13" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
+      <c r="W27" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" s="15" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="23"/>
-    </row>
-    <row r="15" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
-      <c r="B15" s="25"/>
-      <c r="G15" s="26">
-        <v>1</v>
-      </c>
-      <c r="J15" s="26">
-        <v>2</v>
-      </c>
-      <c r="N15" s="26">
-        <v>3</v>
-      </c>
-      <c r="R15" s="26">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" s="18" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="23"/>
-    </row>
-    <row r="17" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
-      <c r="B17" s="23"/>
-    </row>
-    <row r="18" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="21"/>
-      <c r="B18" s="24"/>
-    </row>
-    <row r="19" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
-      <c r="B19" s="23"/>
-    </row>
-    <row r="20" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="21"/>
-      <c r="B20" s="24"/>
-    </row>
-    <row r="21" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
-      <c r="B21" s="23"/>
-    </row>
-    <row r="22" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="21"/>
-      <c r="B22" s="24"/>
-    </row>
-    <row r="23" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
-      <c r="B23" s="23"/>
-    </row>
-    <row r="24" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="21"/>
-      <c r="B24" s="24"/>
-    </row>
-    <row r="25" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="20"/>
-      <c r="B25" s="23"/>
-    </row>
-    <row r="26" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="21"/>
-      <c r="B26" s="24"/>
-    </row>
-    <row r="27" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="20"/>
-      <c r="B27" s="23"/>
-    </row>
-    <row r="28" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="21"/>
-      <c r="B28" s="24"/>
-    </row>
-    <row r="29" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="20"/>
-      <c r="B29" s="23"/>
-    </row>
-    <row r="30" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="21"/>
-      <c r="B30" s="24"/>
-    </row>
-    <row r="31" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="20"/>
-      <c r="B31" s="23"/>
-    </row>
-    <row r="32" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="21"/>
-      <c r="B32" s="24"/>
-    </row>
-    <row r="33" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="20"/>
-      <c r="B33" s="23"/>
-    </row>
-    <row r="34" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="21"/>
-      <c r="B34" s="24"/>
-    </row>
-    <row r="35" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="20"/>
-      <c r="B35" s="23"/>
-    </row>
-    <row r="36" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="21"/>
-      <c r="B36" s="24"/>
-    </row>
-    <row r="37" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="20"/>
-      <c r="B37" s="23"/>
-    </row>
-    <row r="38" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="21"/>
-      <c r="B38" s="24"/>
-    </row>
-    <row r="39" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="20"/>
-      <c r="B39" s="23"/>
-    </row>
-    <row r="40" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="21"/>
-      <c r="B40" s="24"/>
-    </row>
-    <row r="41" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="20"/>
-      <c r="B41" s="23"/>
-    </row>
-    <row r="42" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="21"/>
-      <c r="B42" s="24"/>
-    </row>
-    <row r="43" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="20"/>
-      <c r="B43" s="23"/>
-    </row>
-    <row r="44" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="21"/>
-      <c r="B44" s="24"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="18"/>
+    </row>
+    <row r="29" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="52"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="18"/>
+    </row>
+    <row r="30" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="53"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="19"/>
+    </row>
+    <row r="31" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="52"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="18"/>
+    </row>
+    <row r="32" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="53"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="19"/>
+    </row>
+    <row r="33" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="52"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="18"/>
+    </row>
+    <row r="34" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="53"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="19"/>
+    </row>
+    <row r="35" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="52"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="18"/>
+    </row>
+    <row r="36" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="53"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="19"/>
+    </row>
+    <row r="37" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="52"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="18"/>
+    </row>
+    <row r="38" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="53"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="19"/>
+    </row>
+    <row r="39" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="52"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="18"/>
+    </row>
+    <row r="40" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="53"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="19"/>
+    </row>
+    <row r="41" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="52"/>
+      <c r="B41" s="42"/>
+      <c r="C41" s="18"/>
+    </row>
+    <row r="42" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="53"/>
+      <c r="B42" s="43"/>
+      <c r="C42" s="19"/>
+    </row>
+    <row r="43" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="52"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="18"/>
+    </row>
+    <row r="44" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="53"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="19"/>
+    </row>
+    <row r="45" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="52"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="18"/>
+    </row>
+    <row r="46" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="53"/>
+      <c r="B46" s="43"/>
+      <c r="C46" s="19"/>
+    </row>
+    <row r="47" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="52"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="18"/>
+    </row>
+    <row r="48" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="53"/>
+      <c r="B48" s="43"/>
+      <c r="C48" s="19"/>
+    </row>
+    <row r="49" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="52"/>
+      <c r="B49" s="42"/>
+      <c r="C49" s="18"/>
+    </row>
+    <row r="50" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="53"/>
+      <c r="B50" s="43"/>
+      <c r="C50" s="19"/>
+    </row>
+    <row r="51" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="52"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="18"/>
+    </row>
+    <row r="52" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="53"/>
+      <c r="B52" s="43"/>
+      <c r="C52" s="19"/>
+    </row>
+    <row r="53" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="52"/>
+      <c r="B53" s="42"/>
+      <c r="C53" s="18"/>
+    </row>
+    <row r="54" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="53"/>
+      <c r="B54" s="43"/>
+      <c r="C54" s="19"/>
+    </row>
+    <row r="55" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="52"/>
+      <c r="B55" s="42"/>
+      <c r="C55" s="18"/>
+    </row>
+    <row r="56" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="53"/>
+      <c r="B56" s="43"/>
+      <c r="C56" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="56">
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A55:A56"/>
     <mergeCell ref="A37:A38"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="A41:A42"/>
     <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A26:A27"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B24:B25"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A22:A23"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="L2:O27"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B22:B23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1014,6 +1743,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1026,6 +1756,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Tabelle3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
